--- a/Planeacion del Trabajo/Giroplas_REQM_BD_v1_Requerimientos (1).xlsx
+++ b/Planeacion del Trabajo/Giroplas_REQM_BD_v1_Requerimientos (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="10380" windowHeight="8070" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="96" windowWidth="10380" windowHeight="8076" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Identificación" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="153">
   <si>
     <t>Versión</t>
   </si>
@@ -894,13 +894,58 @@
   </si>
   <si>
     <t>Los reportes que se generan en formato pdf unicamente seran capaces de mostrar mas de un registro</t>
+  </si>
+  <si>
+    <t>url repositorio:</t>
+  </si>
+  <si>
+    <r>
+      <t>Giroplas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF767676"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4078C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Planeacion del Trabajo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF767676"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Giroplas_REQM_BD_v1_Requerimientos (1).xlsx</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -983,6 +1028,38 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4078C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF767676"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4078C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1162,7 +1239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1268,6 +1345,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1286,18 +1375,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1608,23 +1687,23 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +1713,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
@@ -1644,7 +1723,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>2</v>
       </c>
@@ -1652,7 +1731,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
@@ -1660,7 +1739,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
@@ -1668,7 +1747,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
@@ -1676,22 +1755,22 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="42"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1701,39 +1780,39 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>6</v>
       </c>
@@ -1743,39 +1822,39 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="41" t="s">
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="42"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="48"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>0</v>
       </c>
@@ -1789,22 +1868,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="20"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="20"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
     </row>
-    <row r="32" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="20"/>
     </row>
-    <row r="33" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="20"/>
     </row>
   </sheetData>
@@ -1828,70 +1907,70 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="25"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="27"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
     </row>
-    <row r="10" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="27"/>
     </row>
-    <row r="13" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>42</v>
       </c>
@@ -1899,7 +1978,7 @@
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>0</v>
       </c>
@@ -1913,28 +1992,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
     </row>
-    <row r="21" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
     </row>
-    <row r="22" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -1947,65 +2026,70 @@
   <dimension ref="A1:P736"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="49.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="1.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="1.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="34.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="49.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="1.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" customWidth="1"/>
+    <col min="8" max="9" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="1.109375" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="12" max="12" width="34.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="P2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3"/>
       <c r="P3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A5"/>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="P6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
       <c r="J7" s="2"/>
@@ -2013,7 +2097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
@@ -2024,27 +2108,27 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="44" t="s">
+      <c r="K9" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="44"/>
-    </row>
-    <row r="10" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="50"/>
+    </row>
+    <row r="10" spans="1:16" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
@@ -2081,7 +2165,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>44</v>
       </c>
@@ -2112,7 +2196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>47</v>
       </c>
@@ -2141,7 +2225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>128</v>
       </c>
@@ -2170,7 +2254,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>129</v>
       </c>
@@ -2199,7 +2283,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>45</v>
       </c>
@@ -2227,7 +2311,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>59</v>
       </c>
@@ -2255,7 +2339,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>60</v>
       </c>
@@ -2282,7 +2366,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>61</v>
       </c>
@@ -2310,7 +2394,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>62</v>
       </c>
@@ -2338,7 +2422,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>63</v>
       </c>
@@ -2366,7 +2450,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>64</v>
       </c>
@@ -2394,7 +2478,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>65</v>
       </c>
@@ -2422,7 +2506,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>66</v>
       </c>
@@ -2450,7 +2534,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>67</v>
       </c>
@@ -2478,7 +2562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>68</v>
       </c>
@@ -2506,7 +2590,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>69</v>
       </c>
@@ -2534,7 +2618,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>70</v>
       </c>
@@ -2562,7 +2646,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>71</v>
       </c>
@@ -2590,7 +2674,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>72</v>
       </c>
@@ -2618,7 +2702,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>97</v>
       </c>
@@ -2646,7 +2730,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>104</v>
       </c>
@@ -2674,181 +2758,181 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="41" t="s">
         <v>53</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="48" t="s">
+      <c r="D32" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="49"/>
+      <c r="E32" s="43"/>
       <c r="F32" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="I32" s="50" t="s">
+      <c r="G32" s="44"/>
+      <c r="H32" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="49"/>
-      <c r="K32" s="50" t="s">
+      <c r="J32" s="43"/>
+      <c r="K32" s="44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="45" t="s">
         <v>118</v>
       </c>
       <c r="C33" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="50"/>
+      <c r="E33" s="44"/>
       <c r="F33" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" s="50" t="s">
+      <c r="G33" s="44"/>
+      <c r="H33" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50" t="s">
+      <c r="J33" s="44"/>
+      <c r="K33" s="44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="45" t="s">
         <v>120</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="48" t="s">
+      <c r="D34" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="50"/>
+      <c r="E34" s="44"/>
       <c r="F34" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="I34" s="50" t="s">
+      <c r="G34" s="44"/>
+      <c r="H34" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50" t="s">
+      <c r="J34" s="44"/>
+      <c r="K34" s="44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="45" t="s">
         <v>122</v>
       </c>
       <c r="C35" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="50"/>
+      <c r="E35" s="44"/>
       <c r="F35" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" s="50" t="s">
+      <c r="G35" s="44"/>
+      <c r="H35" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50" t="s">
+      <c r="J35" s="44"/>
+      <c r="K35" s="44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="46" t="s">
         <v>124</v>
       </c>
       <c r="C36" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="49"/>
+      <c r="E36" s="43"/>
       <c r="F36" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="50" t="s">
+      <c r="G36" s="44"/>
+      <c r="H36" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50" t="s">
+      <c r="J36" s="44"/>
+      <c r="K36" s="44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="46" t="s">
         <v>126</v>
       </c>
       <c r="C37" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="48" t="s">
+      <c r="D37" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="50"/>
+      <c r="E37" s="44"/>
       <c r="F37" t="s">
         <v>30</v>
       </c>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50" t="s">
+      <c r="G37" s="44"/>
+      <c r="H37" s="44" t="s">
         <v>30</v>
       </c>
       <c r="I37" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50" t="s">
+      <c r="J37" s="44"/>
+      <c r="K37" s="44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>111</v>
       </c>
@@ -2858,23 +2942,23 @@
       <c r="C38" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="42" t="s">
         <v>55</v>
       </c>
       <c r="F38" t="s">
         <v>30</v>
       </c>
-      <c r="H38" s="50" t="s">
+      <c r="H38" s="44" t="s">
         <v>30</v>
       </c>
       <c r="I38" t="s">
         <v>33</v>
       </c>
-      <c r="K38" s="50" t="s">
+      <c r="K38" s="44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
         <v>112</v>
       </c>
@@ -2884,23 +2968,23 @@
       <c r="C39" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="42" t="s">
         <v>55</v>
       </c>
       <c r="F39" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="50" t="s">
+      <c r="H39" s="44" t="s">
         <v>30</v>
       </c>
       <c r="I39" t="s">
         <v>35</v>
       </c>
-      <c r="K39" s="50" t="s">
+      <c r="K39" s="44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
         <v>113</v>
       </c>
@@ -2910,23 +2994,23 @@
       <c r="C40" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="42" t="s">
         <v>146</v>
       </c>
       <c r="F40" t="s">
         <v>30</v>
       </c>
-      <c r="H40" s="50" t="s">
+      <c r="H40" s="44" t="s">
         <v>30</v>
       </c>
       <c r="I40" t="s">
         <v>34</v>
       </c>
-      <c r="K40" s="50" t="s">
+      <c r="K40" s="44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
         <v>114</v>
       </c>
@@ -2936,23 +3020,23 @@
       <c r="C41" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="42" t="s">
         <v>146</v>
       </c>
       <c r="F41" t="s">
         <v>30</v>
       </c>
-      <c r="H41" s="50" t="s">
+      <c r="H41" s="44" t="s">
         <v>30</v>
       </c>
       <c r="I41" t="s">
         <v>34</v>
       </c>
-      <c r="K41" s="50" t="s">
+      <c r="K41" s="44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
         <v>115</v>
       </c>
@@ -2962,23 +3046,23 @@
       <c r="C42" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="42" t="s">
         <v>55</v>
       </c>
       <c r="F42" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="50" t="s">
+      <c r="H42" s="44" t="s">
         <v>30</v>
       </c>
       <c r="I42" t="s">
         <v>35</v>
       </c>
-      <c r="K42" s="50" t="s">
+      <c r="K42" s="44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>116</v>
       </c>
@@ -2988,14 +3072,14 @@
       <c r="C43" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="42" t="s">
         <v>55</v>
       </c>
       <c r="F43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
         <v>117</v>
       </c>
@@ -3005,14 +3089,14 @@
       <c r="C44" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="42" t="s">
         <v>55</v>
       </c>
       <c r="F44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
         <v>47</v>
       </c>
@@ -3023,2072 +3107,2072 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D48" s="14"/>
       <c r="E48" s="13"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="21"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="21"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="21"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="21"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="21"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="21"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="21"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="21"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="21"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="21"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="21"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="21"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="21"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="21"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="21"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="21"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="21"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="21"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="21"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="21"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="21"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="21"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="21"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="21"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="21"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="21"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="21"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="21"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="21"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="21"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="21"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="21"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="21"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="21"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="21"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="21"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="21"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="21"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="21"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="21"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="21"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="21"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="21"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="21"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="21"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="21"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="21"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="21"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="21"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="21"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="21"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="21"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="21"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="21"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="21"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="21"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="21"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="21"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="21"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="21"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="21"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="21"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="21"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="21"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="21"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="21"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="21"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="21"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="21"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="21"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="21"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="21"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="21"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="21"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="21"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="21"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" s="21"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="21"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="21"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="21"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="21"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="21"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131" s="21"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="21"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133" s="21"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134" s="21"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="21"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136" s="21"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137" s="21"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="21"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139" s="21"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140" s="21"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C141" s="21"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="21"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C143" s="21"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144" s="21"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145" s="21"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146" s="21"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" s="21"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" s="21"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149" s="21"/>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" s="21"/>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151" s="21"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" s="21"/>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153" s="21"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C154" s="21"/>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C155" s="21"/>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C156" s="21"/>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C157" s="21"/>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C158" s="21"/>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C159" s="21"/>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C160" s="21"/>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C161" s="21"/>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C162" s="21"/>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C163" s="21"/>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C164" s="21"/>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C165" s="21"/>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C166" s="21"/>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C167" s="21"/>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C168" s="21"/>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C169" s="21"/>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C170" s="21"/>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C171" s="21"/>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C172" s="21"/>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C173" s="21"/>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C174" s="21"/>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C175" s="21"/>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C176" s="21"/>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C177" s="21"/>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C178" s="21"/>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C179" s="21"/>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C180" s="21"/>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C181" s="21"/>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C182" s="21"/>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C183" s="21"/>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C184" s="21"/>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C185" s="21"/>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C186" s="21"/>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C187" s="21"/>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="21"/>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C189" s="21"/>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C190" s="21"/>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C191" s="21"/>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C192" s="21"/>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C193" s="21"/>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C194" s="21"/>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C195" s="21"/>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C196" s="21"/>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C197" s="21"/>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C198" s="21"/>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C199" s="21"/>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C200" s="21"/>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C201" s="21"/>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C202" s="21"/>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C203" s="21"/>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C204" s="21"/>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C205" s="21"/>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C206" s="21"/>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C207" s="21"/>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C208" s="21"/>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C209" s="21"/>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C210" s="21"/>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C211" s="21"/>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C212" s="21"/>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C213" s="21"/>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C214" s="21"/>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C215" s="21"/>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C216" s="21"/>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C217" s="21"/>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C218" s="21"/>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C219" s="21"/>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C220" s="21"/>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C221" s="21"/>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C222" s="21"/>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C223" s="21"/>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C224" s="21"/>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C225" s="21"/>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C226" s="21"/>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C227" s="21"/>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C228" s="21"/>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C229" s="21"/>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C230" s="21"/>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C231" s="21"/>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C232" s="21"/>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C233" s="21"/>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C234" s="21"/>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C235" s="21"/>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C236" s="21"/>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C237" s="21"/>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C238" s="21"/>
     </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C239" s="21"/>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C240" s="21"/>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C241" s="21"/>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C242" s="21"/>
     </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C243" s="21"/>
     </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C244" s="21"/>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C245" s="21"/>
     </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C246" s="21"/>
     </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C247" s="21"/>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C248" s="21"/>
     </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C249" s="21"/>
     </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C250" s="21"/>
     </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C251" s="21"/>
     </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C252" s="21"/>
     </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C253" s="21"/>
     </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C254" s="21"/>
     </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C255" s="21"/>
     </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C256" s="21"/>
     </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C257" s="21"/>
     </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C258" s="21"/>
     </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C259" s="21"/>
     </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C260" s="21"/>
     </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C261" s="21"/>
     </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C262" s="21"/>
     </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C263" s="21"/>
     </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C264" s="21"/>
     </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C265" s="21"/>
     </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C266" s="21"/>
     </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C267" s="21"/>
     </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C268" s="21"/>
     </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C269" s="21"/>
     </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C270" s="21"/>
     </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C271" s="21"/>
     </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C272" s="21"/>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C273" s="21"/>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C274" s="21"/>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C275" s="21"/>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C276" s="21"/>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C277" s="21"/>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C278" s="21"/>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C279" s="21"/>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C280" s="21"/>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C281" s="21"/>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C282" s="21"/>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C283" s="21"/>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C284" s="21"/>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C285" s="21"/>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C286" s="21"/>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C287" s="21"/>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C288" s="21"/>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C289" s="21"/>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C290" s="21"/>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C291" s="21"/>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C292" s="21"/>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C293" s="21"/>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C294" s="21"/>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C295" s="21"/>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C296" s="21"/>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C297" s="21"/>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C298" s="21"/>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C299" s="21"/>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C300" s="21"/>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C301" s="21"/>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C302" s="21"/>
     </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C303" s="21"/>
     </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C304" s="21"/>
     </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C305" s="21"/>
     </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C306" s="21"/>
     </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C307" s="21"/>
     </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C308" s="21"/>
     </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C309" s="21"/>
     </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C310" s="21"/>
     </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C311" s="21"/>
     </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C312" s="21"/>
     </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C313" s="21"/>
     </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C314" s="21"/>
     </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C315" s="21"/>
     </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C316" s="21"/>
     </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C317" s="21"/>
     </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C318" s="21"/>
     </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C319" s="21"/>
     </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C320" s="21"/>
     </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C321" s="21"/>
     </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C322" s="21"/>
     </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C323" s="21"/>
     </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C324" s="21"/>
     </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C325" s="21"/>
     </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C326" s="21"/>
     </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C327" s="21"/>
     </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C328" s="21"/>
     </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C329" s="21"/>
     </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C330" s="21"/>
     </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C331" s="21"/>
     </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C332" s="21"/>
     </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C333" s="21"/>
     </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C334" s="21"/>
     </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C335" s="21"/>
     </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C336" s="21"/>
     </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C337" s="21"/>
     </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C338" s="21"/>
     </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C339" s="21"/>
     </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C340" s="21"/>
     </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C341" s="21"/>
     </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C342" s="21"/>
     </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C343" s="21"/>
     </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C344" s="21"/>
     </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C345" s="21"/>
     </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C346" s="21"/>
     </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C347" s="21"/>
     </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C348" s="21"/>
     </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C349" s="21"/>
     </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C350" s="21"/>
     </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C351" s="21"/>
     </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C352" s="21"/>
     </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C353" s="21"/>
     </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C354" s="21"/>
     </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C355" s="21"/>
     </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C356" s="21"/>
     </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C357" s="21"/>
     </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C358" s="21"/>
     </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C359" s="21"/>
     </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C360" s="21"/>
     </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C361" s="21"/>
     </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C362" s="21"/>
     </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C363" s="21"/>
     </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C364" s="21"/>
     </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C365" s="21"/>
     </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C366" s="21"/>
     </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C367" s="21"/>
     </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C368" s="21"/>
     </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C369" s="21"/>
     </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C370" s="21"/>
     </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C371" s="21"/>
     </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C372" s="21"/>
     </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C373" s="21"/>
     </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C374" s="21"/>
     </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C375" s="21"/>
     </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C376" s="21"/>
     </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C377" s="21"/>
     </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C378" s="21"/>
     </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C379" s="21"/>
     </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C380" s="21"/>
     </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C381" s="21"/>
     </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C382" s="21"/>
     </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C383" s="21"/>
     </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C384" s="21"/>
     </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C385" s="21"/>
     </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C386" s="21"/>
     </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C387" s="21"/>
     </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C388" s="21"/>
     </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C389" s="21"/>
     </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C390" s="21"/>
     </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C391" s="21"/>
     </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C392" s="21"/>
     </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C393" s="21"/>
     </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C394" s="21"/>
     </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C395" s="21"/>
     </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C396" s="21"/>
     </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C397" s="21"/>
     </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C398" s="21"/>
     </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C399" s="21"/>
     </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C400" s="21"/>
     </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C401" s="21"/>
     </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C402" s="21"/>
     </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C403" s="21"/>
     </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C404" s="21"/>
     </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C405" s="21"/>
     </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C406" s="21"/>
     </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C407" s="21"/>
     </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C408" s="21"/>
     </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C409" s="21"/>
     </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C410" s="21"/>
     </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C411" s="21"/>
     </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C412" s="21"/>
     </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C413" s="21"/>
     </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C414" s="21"/>
     </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C415" s="21"/>
     </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C416" s="21"/>
     </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C417" s="21"/>
     </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C418" s="21"/>
     </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C419" s="21"/>
     </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C420" s="21"/>
     </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C421" s="21"/>
     </row>
-    <row r="422" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C422" s="21"/>
     </row>
-    <row r="423" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C423" s="21"/>
     </row>
-    <row r="424" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C424" s="21"/>
     </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C425" s="21"/>
     </row>
-    <row r="426" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C426" s="21"/>
     </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C427" s="21"/>
     </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C428" s="21"/>
     </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C429" s="21"/>
     </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C430" s="21"/>
     </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C431" s="21"/>
     </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C432" s="21"/>
     </row>
-    <row r="433" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C433" s="21"/>
     </row>
-    <row r="434" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C434" s="21"/>
     </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C435" s="21"/>
     </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C436" s="21"/>
     </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C437" s="21"/>
     </row>
-    <row r="438" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C438" s="21"/>
     </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C439" s="21"/>
     </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C440" s="21"/>
     </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C441" s="21"/>
     </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C442" s="21"/>
     </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C443" s="21"/>
     </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C444" s="21"/>
     </row>
-    <row r="445" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C445" s="21"/>
     </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C446" s="21"/>
     </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C447" s="21"/>
     </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C448" s="21"/>
     </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C449" s="21"/>
     </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C450" s="21"/>
     </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C451" s="21"/>
     </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C452" s="21"/>
     </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C453" s="21"/>
     </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C454" s="21"/>
     </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C455" s="21"/>
     </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C456" s="21"/>
     </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C457" s="21"/>
     </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C458" s="21"/>
     </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C459" s="21"/>
     </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C460" s="21"/>
     </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C461" s="21"/>
     </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C462" s="21"/>
     </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C463" s="21"/>
     </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C464" s="21"/>
     </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C465" s="21"/>
     </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C466" s="21"/>
     </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C467" s="21"/>
     </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C468" s="21"/>
     </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C469" s="21"/>
     </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C470" s="21"/>
     </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C471" s="21"/>
     </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C472" s="21"/>
     </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C473" s="21"/>
     </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C474" s="21"/>
     </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C475" s="21"/>
     </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C476" s="21"/>
     </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C477" s="21"/>
     </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C478" s="21"/>
     </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C479" s="21"/>
     </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C480" s="21"/>
     </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C481" s="21"/>
     </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C482" s="21"/>
     </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C483" s="21"/>
     </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C484" s="21"/>
     </row>
-    <row r="485" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C485" s="21"/>
     </row>
-    <row r="486" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C486" s="21"/>
     </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C487" s="21"/>
     </row>
-    <row r="488" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C488" s="21"/>
     </row>
-    <row r="489" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C489" s="21"/>
     </row>
-    <row r="490" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C490" s="21"/>
     </row>
-    <row r="491" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C491" s="21"/>
     </row>
-    <row r="492" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C492" s="21"/>
     </row>
-    <row r="493" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C493" s="21"/>
     </row>
-    <row r="494" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C494" s="21"/>
     </row>
-    <row r="495" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C495" s="21"/>
     </row>
-    <row r="496" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C496" s="21"/>
     </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C497" s="21"/>
     </row>
-    <row r="498" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C498" s="21"/>
     </row>
-    <row r="499" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C499" s="21"/>
     </row>
-    <row r="500" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C500" s="21"/>
     </row>
-    <row r="501" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C501" s="21"/>
     </row>
-    <row r="502" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C502" s="21"/>
     </row>
-    <row r="503" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C503" s="21"/>
     </row>
-    <row r="504" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C504" s="21"/>
     </row>
-    <row r="505" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C505" s="21"/>
     </row>
-    <row r="506" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C506" s="21"/>
     </row>
-    <row r="507" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C507" s="21"/>
     </row>
-    <row r="508" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C508" s="21"/>
     </row>
-    <row r="509" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C509" s="21"/>
     </row>
-    <row r="510" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C510" s="21"/>
     </row>
-    <row r="511" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C511" s="21"/>
     </row>
-    <row r="512" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C512" s="21"/>
     </row>
-    <row r="513" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C513" s="21"/>
     </row>
-    <row r="514" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C514" s="21"/>
     </row>
-    <row r="515" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C515" s="21"/>
     </row>
-    <row r="516" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C516" s="21"/>
     </row>
-    <row r="517" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C517" s="21"/>
     </row>
-    <row r="518" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C518" s="21"/>
     </row>
-    <row r="519" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C519" s="21"/>
     </row>
-    <row r="520" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C520" s="21"/>
     </row>
-    <row r="521" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C521" s="21"/>
     </row>
-    <row r="522" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C522" s="21"/>
     </row>
-    <row r="523" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C523" s="21"/>
     </row>
-    <row r="524" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C524" s="21"/>
     </row>
-    <row r="525" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C525" s="21"/>
     </row>
-    <row r="526" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C526" s="21"/>
     </row>
-    <row r="527" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C527" s="21"/>
     </row>
-    <row r="528" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C528" s="21"/>
     </row>
-    <row r="529" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C529" s="21"/>
     </row>
-    <row r="530" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C530" s="21"/>
     </row>
-    <row r="531" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C531" s="21"/>
     </row>
-    <row r="532" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C532" s="21"/>
     </row>
-    <row r="533" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C533" s="21"/>
     </row>
-    <row r="534" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C534" s="21"/>
     </row>
-    <row r="535" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C535" s="21"/>
     </row>
-    <row r="536" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C536" s="21"/>
     </row>
-    <row r="537" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C537" s="21"/>
     </row>
-    <row r="538" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C538" s="21"/>
     </row>
-    <row r="539" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C539" s="21"/>
     </row>
-    <row r="540" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C540" s="21"/>
     </row>
-    <row r="541" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C541" s="21"/>
     </row>
-    <row r="542" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C542" s="21"/>
     </row>
-    <row r="543" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C543" s="21"/>
     </row>
-    <row r="544" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C544" s="21"/>
     </row>
-    <row r="545" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C545" s="21"/>
     </row>
-    <row r="546" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C546" s="21"/>
     </row>
-    <row r="547" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C547" s="21"/>
     </row>
-    <row r="548" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C548" s="21"/>
     </row>
-    <row r="549" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C549" s="21"/>
     </row>
-    <row r="550" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C550" s="21"/>
     </row>
-    <row r="551" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C551" s="21"/>
     </row>
-    <row r="552" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C552" s="21"/>
     </row>
-    <row r="553" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C553" s="21"/>
     </row>
-    <row r="554" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C554" s="21"/>
     </row>
-    <row r="555" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C555" s="21"/>
     </row>
-    <row r="556" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C556" s="21"/>
     </row>
-    <row r="557" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C557" s="21"/>
     </row>
-    <row r="558" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C558" s="21"/>
     </row>
-    <row r="559" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C559" s="21"/>
     </row>
-    <row r="560" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C560" s="21"/>
     </row>
-    <row r="561" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C561" s="21"/>
     </row>
-    <row r="562" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C562" s="21"/>
     </row>
-    <row r="563" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C563" s="21"/>
     </row>
-    <row r="564" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C564" s="21"/>
     </row>
-    <row r="565" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C565" s="21"/>
     </row>
-    <row r="566" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C566" s="21"/>
     </row>
-    <row r="567" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C567" s="21"/>
     </row>
-    <row r="568" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="568" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C568" s="21"/>
     </row>
-    <row r="569" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C569" s="21"/>
     </row>
-    <row r="570" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C570" s="21"/>
     </row>
-    <row r="571" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="571" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C571" s="21"/>
     </row>
-    <row r="572" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C572" s="21"/>
     </row>
-    <row r="573" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C573" s="21"/>
     </row>
-    <row r="574" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C574" s="21"/>
     </row>
-    <row r="575" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C575" s="21"/>
     </row>
-    <row r="576" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C576" s="21"/>
     </row>
-    <row r="577" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="577" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C577" s="21"/>
     </row>
-    <row r="578" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="578" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C578" s="21"/>
     </row>
-    <row r="579" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="579" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C579" s="21"/>
     </row>
-    <row r="580" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="580" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C580" s="21"/>
     </row>
-    <row r="581" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="581" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C581" s="21"/>
     </row>
-    <row r="582" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="582" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C582" s="21"/>
     </row>
-    <row r="583" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="583" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C583" s="21"/>
     </row>
-    <row r="584" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="584" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C584" s="21"/>
     </row>
-    <row r="585" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="585" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C585" s="21"/>
     </row>
-    <row r="586" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="586" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C586" s="21"/>
     </row>
-    <row r="587" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="587" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C587" s="21"/>
     </row>
-    <row r="588" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="588" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C588" s="21"/>
     </row>
-    <row r="589" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="589" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C589" s="21"/>
     </row>
-    <row r="590" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C590" s="21"/>
     </row>
-    <row r="591" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="591" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C591" s="21"/>
     </row>
-    <row r="592" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="592" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C592" s="21"/>
     </row>
-    <row r="593" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="593" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C593" s="21"/>
     </row>
-    <row r="594" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="594" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C594" s="21"/>
     </row>
-    <row r="595" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="595" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C595" s="21"/>
     </row>
-    <row r="596" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="596" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C596" s="21"/>
     </row>
-    <row r="597" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="597" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C597" s="21"/>
     </row>
-    <row r="598" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="598" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C598" s="21"/>
     </row>
-    <row r="599" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="599" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C599" s="21"/>
     </row>
-    <row r="600" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="600" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C600" s="21"/>
     </row>
-    <row r="601" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="601" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C601" s="21"/>
     </row>
-    <row r="602" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="602" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C602" s="21"/>
     </row>
-    <row r="603" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="603" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C603" s="21"/>
     </row>
-    <row r="604" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="604" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C604" s="21"/>
     </row>
-    <row r="605" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="605" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C605" s="21"/>
     </row>
-    <row r="606" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="606" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C606" s="21"/>
     </row>
-    <row r="607" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="607" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C607" s="21"/>
     </row>
-    <row r="608" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="608" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C608" s="21"/>
     </row>
-    <row r="609" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="609" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C609" s="21"/>
     </row>
-    <row r="610" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="610" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C610" s="21"/>
     </row>
-    <row r="611" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="611" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C611" s="21"/>
     </row>
-    <row r="612" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="612" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C612" s="21"/>
     </row>
-    <row r="613" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="613" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C613" s="21"/>
     </row>
-    <row r="614" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="614" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C614" s="21"/>
     </row>
-    <row r="615" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="615" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C615" s="21"/>
     </row>
-    <row r="616" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="616" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C616" s="21"/>
     </row>
-    <row r="617" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="617" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C617" s="21"/>
     </row>
-    <row r="618" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C618" s="21"/>
     </row>
-    <row r="619" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="619" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C619" s="21"/>
     </row>
-    <row r="620" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="620" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C620" s="21"/>
     </row>
-    <row r="621" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="621" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C621" s="21"/>
     </row>
-    <row r="622" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="622" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C622" s="21"/>
     </row>
-    <row r="623" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="623" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C623" s="21"/>
     </row>
-    <row r="624" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="624" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C624" s="21"/>
     </row>
-    <row r="625" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="625" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C625" s="21"/>
     </row>
-    <row r="626" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="626" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C626" s="21"/>
     </row>
-    <row r="627" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="627" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C627" s="21"/>
     </row>
-    <row r="628" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="628" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C628" s="21"/>
     </row>
-    <row r="629" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="629" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C629" s="21"/>
     </row>
-    <row r="630" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="630" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C630" s="21"/>
     </row>
-    <row r="631" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="631" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C631" s="21"/>
     </row>
-    <row r="632" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="632" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C632" s="21"/>
     </row>
-    <row r="633" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="633" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C633" s="21"/>
     </row>
-    <row r="634" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="634" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C634" s="21"/>
     </row>
-    <row r="635" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="635" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C635" s="21"/>
     </row>
-    <row r="636" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="636" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C636" s="21"/>
     </row>
-    <row r="637" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="637" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C637" s="21"/>
     </row>
-    <row r="638" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="638" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C638" s="21"/>
     </row>
-    <row r="639" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="639" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C639" s="21"/>
     </row>
-    <row r="640" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="640" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C640" s="21"/>
     </row>
-    <row r="641" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="641" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C641" s="21"/>
     </row>
-    <row r="642" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="642" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C642" s="21"/>
     </row>
-    <row r="643" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="643" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C643" s="21"/>
     </row>
-    <row r="644" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="644" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C644" s="21"/>
     </row>
-    <row r="645" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="645" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C645" s="21"/>
     </row>
-    <row r="646" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="646" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C646" s="21"/>
     </row>
-    <row r="647" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="647" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C647" s="21"/>
     </row>
-    <row r="648" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="648" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C648" s="21"/>
     </row>
-    <row r="649" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="649" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C649" s="21"/>
     </row>
-    <row r="650" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="650" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C650" s="21"/>
     </row>
-    <row r="651" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="651" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C651" s="21"/>
     </row>
-    <row r="652" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="652" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C652" s="21"/>
     </row>
-    <row r="653" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="653" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C653" s="21"/>
     </row>
-    <row r="654" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="654" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C654" s="21"/>
     </row>
-    <row r="655" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="655" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C655" s="21"/>
     </row>
-    <row r="656" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="656" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C656" s="21"/>
     </row>
-    <row r="657" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="657" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C657" s="21"/>
     </row>
-    <row r="658" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="658" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C658" s="21"/>
     </row>
-    <row r="659" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="659" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C659" s="21"/>
     </row>
-    <row r="660" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="660" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C660" s="21"/>
     </row>
-    <row r="661" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="661" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C661" s="21"/>
     </row>
-    <row r="662" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="662" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C662" s="21"/>
     </row>
-    <row r="663" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="663" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C663" s="21"/>
     </row>
-    <row r="664" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="664" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C664" s="21"/>
     </row>
-    <row r="665" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="665" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C665" s="21"/>
     </row>
-    <row r="666" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="666" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C666" s="21"/>
     </row>
-    <row r="667" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="667" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C667" s="21"/>
     </row>
-    <row r="668" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="668" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C668" s="21"/>
     </row>
-    <row r="669" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="669" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C669" s="21"/>
     </row>
-    <row r="670" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="670" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C670" s="21"/>
     </row>
-    <row r="671" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="671" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C671" s="21"/>
     </row>
-    <row r="672" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="672" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C672" s="21"/>
     </row>
-    <row r="673" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="673" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C673" s="21"/>
     </row>
-    <row r="674" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="674" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C674" s="21"/>
     </row>
-    <row r="675" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="675" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C675" s="21"/>
     </row>
-    <row r="676" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="676" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C676" s="21"/>
     </row>
-    <row r="677" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="677" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C677" s="21"/>
     </row>
-    <row r="678" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="678" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C678" s="21"/>
     </row>
-    <row r="679" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="679" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C679" s="21"/>
     </row>
-    <row r="680" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="680" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C680" s="21"/>
     </row>
-    <row r="681" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="681" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C681" s="21"/>
     </row>
-    <row r="682" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="682" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C682" s="21"/>
     </row>
-    <row r="683" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="683" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C683" s="21"/>
     </row>
-    <row r="684" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="684" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C684" s="21"/>
     </row>
-    <row r="685" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="685" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C685" s="21"/>
     </row>
-    <row r="686" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="686" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C686" s="21"/>
     </row>
-    <row r="687" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="687" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C687" s="21"/>
     </row>
-    <row r="688" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="688" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C688" s="21"/>
     </row>
-    <row r="689" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="689" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C689" s="21"/>
     </row>
-    <row r="690" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="690" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C690" s="21"/>
     </row>
-    <row r="691" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="691" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C691" s="21"/>
     </row>
-    <row r="692" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="692" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C692" s="21"/>
     </row>
-    <row r="693" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="693" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C693" s="21"/>
     </row>
-    <row r="694" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="694" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C694" s="21"/>
     </row>
-    <row r="695" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="695" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C695" s="21"/>
     </row>
-    <row r="696" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="696" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C696" s="21"/>
     </row>
-    <row r="697" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="697" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C697" s="21"/>
     </row>
-    <row r="698" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="698" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C698" s="21"/>
     </row>
-    <row r="699" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="699" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C699" s="21"/>
     </row>
-    <row r="700" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="700" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C700" s="21"/>
     </row>
-    <row r="701" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="701" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C701" s="21"/>
     </row>
-    <row r="702" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="702" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C702" s="21"/>
     </row>
-    <row r="703" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="703" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C703" s="21"/>
     </row>
-    <row r="704" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="704" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C704" s="21"/>
     </row>
-    <row r="705" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="705" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C705" s="21"/>
     </row>
-    <row r="706" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="706" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C706" s="21"/>
     </row>
-    <row r="707" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="707" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C707" s="21"/>
     </row>
-    <row r="708" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="708" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C708" s="21"/>
     </row>
-    <row r="709" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="709" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C709" s="21"/>
     </row>
-    <row r="710" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="710" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C710" s="21"/>
     </row>
-    <row r="711" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="711" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C711" s="21"/>
     </row>
-    <row r="712" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="712" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C712" s="21"/>
     </row>
-    <row r="713" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="713" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C713" s="21"/>
     </row>
-    <row r="714" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="714" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C714" s="21"/>
     </row>
-    <row r="715" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="715" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C715" s="21"/>
     </row>
-    <row r="716" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="716" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C716" s="21"/>
     </row>
-    <row r="717" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="717" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C717" s="21"/>
     </row>
-    <row r="718" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="718" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C718" s="21"/>
     </row>
-    <row r="719" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="719" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C719" s="21"/>
     </row>
-    <row r="720" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="720" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C720" s="21"/>
     </row>
-    <row r="721" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="721" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C721" s="21"/>
     </row>
-    <row r="722" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="722" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C722" s="21"/>
     </row>
-    <row r="723" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="723" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C723" s="21"/>
     </row>
-    <row r="724" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="724" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C724" s="21"/>
     </row>
-    <row r="725" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="725" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C725" s="21"/>
     </row>
-    <row r="726" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="726" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C726" s="21"/>
     </row>
-    <row r="727" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="727" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C727" s="21"/>
     </row>
-    <row r="728" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="728" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C728" s="21"/>
     </row>
-    <row r="729" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="729" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C729" s="21"/>
     </row>
-    <row r="730" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="730" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C730" s="21"/>
     </row>
-    <row r="731" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="731" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C731" s="21"/>
     </row>
-    <row r="732" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="732" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C732" s="21"/>
     </row>
-    <row r="733" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="733" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C733" s="21"/>
     </row>
-    <row r="734" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="734" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C734" s="21"/>
     </row>
-    <row r="735" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="735" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C735" s="21"/>
     </row>
-    <row r="736" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="736" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C736" s="21"/>
     </row>
   </sheetData>
